--- a/empleados.xlsx
+++ b/empleados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -20,37 +20,19 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Correo</t>
-  </si>
-  <si>
-    <t>Luis Ramirez</t>
-  </si>
-  <si>
-    <t>20000001</t>
-  </si>
-  <si>
-    <t>Ana Gomez</t>
-  </si>
-  <si>
-    <t>20000002</t>
-  </si>
-  <si>
-    <t>Pedro Diaz</t>
-  </si>
-  <si>
-    <t>20000003</t>
-  </si>
-  <si>
-    <t>Lucía Torres</t>
-  </si>
-  <si>
-    <t>20000004</t>
-  </si>
-  <si>
-    <t>Carlos Sánchez</t>
-  </si>
-  <si>
-    <t>20000005</t>
+    <t>Número de Documento</t>
+  </si>
+  <si>
+    <t>Salario</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Puesto</t>
+  </si>
+  <si>
+    <t>Fecha de Ingreso</t>
   </si>
   <si>
     <t>María Lopez</t>
@@ -59,88 +41,148 @@
     <t>20000006</t>
   </si>
   <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
     <t>Jorge Rivas</t>
   </si>
   <si>
     <t>20000007</t>
   </si>
   <si>
+    <t>SysAdmin</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
     <t>Fernanda Cruz</t>
   </si>
   <si>
     <t>20000008</t>
   </si>
   <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
     <t>David Mendoza</t>
   </si>
   <si>
     <t>20000009</t>
   </si>
   <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
     <t>Paula Salas</t>
   </si>
   <si>
     <t>20000010</t>
   </si>
   <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
     <t>Diego Morales</t>
   </si>
   <si>
     <t>20000011</t>
   </si>
   <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
     <t>Andrea Navarro</t>
   </si>
   <si>
     <t>20000012</t>
   </si>
   <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
     <t>Ricardo Fernandez</t>
   </si>
   <si>
     <t>20000013</t>
   </si>
   <si>
+    <t>2022-03-20</t>
+  </si>
+  <si>
     <t>Valeria Campos</t>
   </si>
   <si>
     <t>20000014</t>
   </si>
   <si>
+    <t>2022-04-05</t>
+  </si>
+  <si>
     <t>Julio Paredes</t>
   </si>
   <si>
     <t>20000015</t>
   </si>
   <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
     <t>Sofia Luna</t>
   </si>
   <si>
     <t>20000016</t>
   </si>
   <si>
+    <t>2022-06-23</t>
+  </si>
+  <si>
     <t>Miguel Herrera</t>
   </si>
   <si>
     <t>20000017</t>
   </si>
   <si>
+    <t>2022-07-18</t>
+  </si>
+  <si>
     <t>Camila Silva</t>
   </si>
   <si>
     <t>20000018</t>
   </si>
   <si>
+    <t>2022-08-27</t>
+  </si>
+  <si>
     <t>Oscar Vega</t>
   </si>
   <si>
     <t>20000019</t>
   </si>
   <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
     <t>Laura Cornejo</t>
   </si>
   <si>
     <t>20000020</t>
+  </si>
+  <si>
+    <t>2022-12-15</t>
   </si>
 </sst>
 </file>
@@ -185,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -201,225 +243,362 @@
       <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>4100.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>4300.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>3600.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>4700.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>3900.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>5000.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>4500.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>4800.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>3700.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>4100.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>22</v>
+      <c r="G11" t="s" s="0">
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>3950.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="B13" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>3850.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>26</v>
+      <c r="G13" t="s" s="0">
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>28</v>
+        <v>49</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>4050.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>4250.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="0">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>4150.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
